--- a/examples/sample_test_cases.xlsx
+++ b/examples/sample_test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\江山如画\【4】阳光产险\阳光保险\【1】系统文档\【9】大模型\批量调用及测试工具\chatflow-test-tool\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\学习奋斗\我的博客记录\微信公众号\【20250908】dify知识库准备\dify_chatflow_batch\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF699E8-1C94-496B-842F-2EAB58CC3A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1408E688-DB38-434D-A81B-FB62C82D1B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21030" yWindow="5040" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>M11</t>
   </si>
@@ -28,15 +28,9 @@
     <t>请假有什么规定？</t>
   </si>
   <si>
-    <t>为了给您更准确的答复，请问您是想了解适用于“内勤及非销售人员”的政策，还是“外勤员工与销售员工”的政策？</t>
-  </si>
-  <si>
     <t>外勤员工</t>
   </si>
   <si>
-    <t>好的，针对外勤员工与销售员工：请休假/公出应事先在系统中提交申请。请假3日以下的，须至少提前1个工作日；3至5日的，须提前3个工作日；5日及以上的，须提前5个工作日。</t>
-  </si>
-  <si>
     <t>M12</t>
   </si>
   <si>
@@ -46,9 +40,6 @@
     <t>销售</t>
   </si>
   <si>
-    <t>好的，针对销售员工：晚于规定上班时间0.5小时以内视为迟到，会扣除0.5小时薪资。不过公司允许每个考勤周期内有1次不超过15分钟的善意迟到。</t>
-  </si>
-  <si>
     <t>M13</t>
   </si>
   <si>
@@ -58,9 +49,6 @@
     <t>销售人员</t>
   </si>
   <si>
-    <t>好的，针对销售员工：您需要连续工作满12个月以上才能享受年休假。根据您的累计工龄，假期天数为5到15天不等。休假需要在系统里提交申请并获得批准。</t>
-  </si>
-  <si>
     <t>M14</t>
   </si>
   <si>
@@ -70,45 +58,30 @@
     <t>外勤</t>
   </si>
   <si>
-    <t>好的，针对外勤员工：如果您是实际到岗但忘记打卡，属于善意漏打卡。您必须在2个工作日内提交漏打卡申请并附上工作证明，否则漏打卡一次将按旷工半天处理。</t>
-  </si>
-  <si>
     <t>M15</t>
   </si>
   <si>
     <t>请病假工资怎么算？</t>
   </si>
   <si>
-    <t>好的，针对销售员工：非全月病假的，病假期间薪酬为（基本工资+筹备期津贴+岗位津贴）的50%，但当月总薪酬不低于当地最低工资标准；全月病假的，不低于当地最低工资标准的80%。</t>
-  </si>
-  <si>
     <t>M16</t>
   </si>
   <si>
     <t>啥情况算旷工？</t>
   </si>
   <si>
-    <t>好的，针对销售员工：旷工包括未请假或请假未批准而擅自不到岗、晚到或早退超过0.5小时、休假期满未归、不参加晨夕会等多种情况。</t>
-  </si>
-  <si>
     <t>M17</t>
   </si>
   <si>
     <t>结婚可以请几天假？</t>
   </si>
   <si>
-    <t>好的，针对外勤员工：您可以申请3天婚假，如果地方政策有奖励假还可以增加。婚假需要在登记结婚后的1年内一次性休完。</t>
-  </si>
-  <si>
     <t>M18</t>
   </si>
   <si>
     <t>什么样的考勤问题会导致被开除？</t>
   </si>
   <si>
-    <t>好的，针对销售员工：严重违纪行为包括代打卡或虚假打卡、一个月内连续旷工2天或累计旷工3天、一个月内累计迟到或早退6次以上、提供虚假请假材料等，这些都可能导致公司解除劳动合同。</t>
-  </si>
-  <si>
     <t>M19</t>
   </si>
   <si>
@@ -118,39 +91,24 @@
     <t>销售员工</t>
   </si>
   <si>
-    <t>好的，针对销售员工：您可以申请3天婚假，如果地方政策有奖励假还可以增加。需要在登记结婚后的1年内一次性休完。</t>
-  </si>
-  <si>
     <t>那陪产假呢？</t>
   </si>
   <si>
-    <t>针对销售员工，配偶生育的，男员工按照当地相关政策可申请享受陪产假。</t>
-  </si>
-  <si>
     <t>M20</t>
   </si>
   <si>
     <t>年假怎么申请？</t>
   </si>
   <si>
-    <t>好的，针对外勤员工：您需要在系统里提交申请，经相关管理者批准后方可休假。</t>
-  </si>
-  <si>
     <t>那它有什么申请条件吗？</t>
   </si>
   <si>
-    <t>有的，要享受年休假，您需要连续工作满12个月以上。试用期内不能申请。</t>
-  </si>
-  <si>
     <t>M21</t>
   </si>
   <si>
     <t>考勤有问题找谁？</t>
   </si>
   <si>
-    <t>好的，针对销售员工：各机构负责人是考勤休假管理的第一责任人，您应首先联系您的机构负责人。</t>
-  </si>
-  <si>
     <t>M22</t>
   </si>
   <si>
@@ -160,148 +118,82 @@
     <t>外勤人员</t>
   </si>
   <si>
-    <t>好的，针对外勤员工：出差不需要打卡，但需要提交公出申请，审批通过后可视同正常出勤。</t>
-  </si>
-  <si>
     <t>M23</t>
   </si>
   <si>
     <t>迟到会扣钱吗？</t>
   </si>
   <si>
-    <t>好的，针对销售员工：是的，每迟到或早退1次，会分别扣除0.5小时的薪资，扣薪项目包含基本工资、筹备期津贴和岗位津贴。</t>
-  </si>
-  <si>
     <t>M24</t>
   </si>
   <si>
     <t>丧假怎么请？</t>
   </si>
   <si>
-    <t>好的，针对外勤员工：处理直系亲属等丧事，可给予3天假期。假期期间享受全额薪资。</t>
-  </si>
-  <si>
     <t>这个假包含周末吗？</t>
   </si>
   <si>
-    <t>丧假的天数标准为工作日，不包括公休日和法定节假日。</t>
-  </si>
-  <si>
     <t>M25</t>
   </si>
   <si>
     <t>我想请事假，怎么申请？</t>
   </si>
   <si>
-    <t>好的，针对销售员工：您可以在系统里提交事假申请，但请注意事假是无薪的，并且如果您有未休的年假，公司会优先安排您休年假。</t>
-  </si>
-  <si>
     <t>M26</t>
   </si>
   <si>
     <t>哺乳期有什么规定？</t>
   </si>
   <si>
-    <t>好的，针对销售员工：哺乳未满一周岁婴儿的，每天给予1小时的哺乳时间；多胞胎每多一个婴儿，每天增加1小时。</t>
-  </si>
-  <si>
     <t>M27</t>
   </si>
   <si>
     <t>我想销假，该怎么做？</t>
   </si>
   <si>
-    <t>好的，针对外勤员工：如果您想变更假期或提前结束休假，需要在请假当月在系统中进行销假申请，待申请通过后，再根据需要重新提交请假申请。</t>
-  </si>
-  <si>
     <t>销售员工工龄8年，年假有几天？</t>
   </si>
   <si>
-    <t>针对销售员工：累计工作已满1年不满10年的，年休假为5天。</t>
-  </si>
-  <si>
     <t>外勤员工工作15年后，年假是多少天？</t>
   </si>
   <si>
-    <t>针对外勤员工：累计工作已满10年不满20年的，年休假为10天。</t>
-  </si>
-  <si>
     <t>销售员工去年的年假最晚可以什么时候休？</t>
   </si>
   <si>
-    <t>针对销售员工：确因工作原因无法在当年安排使用的年休假，可延至次年3月31日。</t>
-  </si>
-  <si>
     <t>外勤员工上班迟到超过半小时算什么？</t>
   </si>
   <si>
-    <t>针对外勤员工：晚于规定上班时间0.5小时以上，按旷工处理。</t>
-  </si>
-  <si>
     <t>销售员工这个月第一次迟到10分钟，会扣工资吗？</t>
   </si>
   <si>
-    <t>针对销售员工：不会。公司允许每个考勤周期内有1次不超过15分钟的善意迟到。</t>
-  </si>
-  <si>
     <t>外勤员工如果不参加公司组织的培训会怎么样？</t>
   </si>
   <si>
-    <t>针对外勤员工：若无提前请假或无正当理由而未出席公司组织的各类培训，按旷工处理。</t>
-  </si>
-  <si>
     <t>销售员工的婚假是按工作日算还是自然日算？</t>
   </si>
   <si>
-    <t>针对销售员工：婚假天数标准为自然日，包括法定节假日、公休日。</t>
-  </si>
-  <si>
     <t>外勤员工的丧假是按工作日算还是自然日算？</t>
   </si>
   <si>
-    <t>针对外勤员工：丧假天数标准为工作日。</t>
-  </si>
-  <si>
     <t>女销售怀孕3个月流产了，能休几天产假？</t>
   </si>
   <si>
-    <t>针对女销售员工：怀孕不满4个月流产的，产假为15天。</t>
-  </si>
-  <si>
     <t>男外勤员工的陪产假必须在什么时候休完？</t>
   </si>
   <si>
-    <t>针对男外勤员工：陪产假应自配偶产前1个月至子女出生2个月内使用有效。</t>
-  </si>
-  <si>
     <t>销售员工请事假，公司会强制先休年假吗？</t>
   </si>
   <si>
-    <t>针对销售员工：是的，如您在提交事假申请时有应休未休的年休假，公司有权优先安排您休年假。</t>
-  </si>
-  <si>
     <t>外勤员工请病假，需要什么级别的医院开证明？</t>
   </si>
   <si>
-    <t>针对外勤员工：需要提交二级及以上医院出具的诊断报告、病历及病休证明书等原件。</t>
-  </si>
-  <si>
     <t>销售员工在试用期旷工半天有什么后果？</t>
   </si>
   <si>
-    <t>针对销售员工：试用期员工旷工半天（含）以上者，属于严重违反劳动纪律，公司有权解除劳动合同并不支付经济补偿金。</t>
-  </si>
-  <si>
     <t>外勤员工一个月迟到早退多少次算严重违纪？</t>
   </si>
   <si>
-    <t>针对外勤员工：一个月内累计迟到或早退6次（含）以上者，视为严重违纪。</t>
-  </si>
-  <si>
     <t>销售员工用假的病假条请假有什么后果？</t>
-  </si>
-  <si>
-    <t>针对销售员工：提供弄虚作假的病假材料属于严重违纪行为，公司有权给予解除劳动合同并不支付经济补偿金。</t>
   </si>
   <si>
     <t>M28</t>
@@ -747,10 +639,10 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -760,19 +652,19 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -782,11 +674,9 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="70" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -794,710 +684,567 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="56" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="56" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="56" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="70" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
         <v>53</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
         <v>55</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
         <v>56</v>
       </c>
-      <c r="D33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
